--- a/MEDIA/_ 2281_001_會計科目餘額明細.xlsx
+++ b/MEDIA/_ 2281_001_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_ 2281_001_2020-10-26~2020-10-31)</t>
+          <t>森邦(股)會計科目餘額明細(_ 2281_001_2020-11-23~2020-11-27)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>7608440</v>
+        <v>6033131</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20201027</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10910月台北展NO.7-黃華琪(黃徐麗鳳 匯) 代尋2萬</t>
+          <t>沖#1075310906月台北展NO131曾家祥 退代尋  </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15500</v>
       </c>
       <c r="F4" t="n">
-        <v>-20000</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7628440</v>
+        <v>6017631</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110653</t>
+          <t>111983</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20201030</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -483,7 +483,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>阮煌文秋季展客戶NO.9-張曉麗現場退訂費用        </t>
+          <t>沖#110210-10910月台北展NO.76-王荷熏   </t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -493,11 +493,11 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7627940</v>
+        <v>6017131</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110682</t>
+          <t>111983</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20201030</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,21 +524,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>沖10906月台北展NO153盧君宜            </t>
+          <t>沖#105807-10906台北展NO.63-錢皓天    </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5000</v>
+        <v>500</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7622940</v>
+        <v>6016631</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110619</t>
+          <t>111983</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -550,7 +550,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20201030</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,38 +560,38 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>退訂                                      </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>沖#1102110910月台北展NO.14-謝志龍     </t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F7" t="n">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7627940</v>
+        <v>6016131</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110614</t>
+          <t>111974</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2999989</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20201030</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -606,21 +606,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>沖110210-#10910月台北展NO.30-張為瑲   </t>
+          <t>10906北展NO131-曾家祥退代尋扣5000      </t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>7627440</v>
+        <v>6011131</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110734</t>
+          <t>111982</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20201030</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,21 +647,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>沖106224-#10906月台北展NO.110-王芳葦  </t>
+          <t>10910月台北展NO.106-李俊宏           </t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>7607440</v>
+        <v>6010631</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110734</t>
+          <t>111974</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -673,7 +673,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20201030</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -688,21 +688,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10906台北展NO2賴景亭/陳郡甫/賴景豪-頭份昌榮 工程</t>
+          <t>沖#105807-10906台北展NO.88-胡嘉琪    </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F10" t="n">
-        <v>-330000</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7937440</v>
+        <v>6010131</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110803</t>
+          <t>111974</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -714,7 +714,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20201030</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>沖#110210-10910月台北展NO.100-卓佳慧  </t>
+          <t>沖#105807-10906台北展NO.58-蕭柏松    </t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -739,11 +739,11 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7936940</v>
+        <v>6009631</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110768</t>
+          <t>112039</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -755,7 +755,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20201030</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>沖110210-10910月台北展NO.60-林志龍    </t>
+          <t>沖#110210-10910月台北展NO.40-黃彥婷   </t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -780,11 +780,11 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>7936440</v>
+        <v>6009131</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110768</t>
+          <t>112039</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20201030</t>
+          <t>20201127</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -811,557 +811,24 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>沖#110210-10910月台北展NO.38-莫尚禹   </t>
+          <t>沖#111270-10910月北展NO14-謝志龍代尋2萬 </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>500</v>
+        <v>20000</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7935940</v>
+        <v>5989131</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110768</t>
+          <t>111974</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>黃凱祺台北夏季展客戶退訂-110王芳葦/35陳秀玲     </t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7934940</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>110636</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>黃隆玄10/23秋季展No.92彭嘉興退訂         </t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>500</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>7934440</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>110636</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>沖#110210-10910月台北展NO3-郭弘逸     </t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>500</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>7933940</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>110611</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>沖#110210-10910月台北展NO18-李采蓁    </t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>500</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>7933440</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>110611</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>沖#110210-10910月台北展NO86-楊東穎    </t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>500</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>7932940</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>110611</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>沖#110210-10910月台北展NO87-鄭雁云    </t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>500</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>7932440</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>110611</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>沖#110210-10910月台北展NO103-楊濬修   </t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>500</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>7931940</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>110611</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>沖#106224-10906月台北展NO153盧君宜 代尋 </t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7916940</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>110617</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>沖#105807-10906台北展NO.153-盧君宜   </t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>500</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>7916440</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>110617</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>20201030</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>沖10906月台北展NO153盧君宜退訂          </t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>5000</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>7911440</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>110614</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>20201031</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>沖竹北嘉興設備款                      </t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>638000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>7273440</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>110754</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>20201031</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>沖北市光復設備款                      </t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>920240</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6353200</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>110817</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>20201031</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2281  .001     </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>沖桃園國強設備款                      </t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>1020000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>5333200</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>110798</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
